--- a/biology/Écologie/Dendromicrohabitat/Dendromicrohabitat.xlsx
+++ b/biology/Écologie/Dendromicrohabitat/Dendromicrohabitat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un dendromicrohabitat, ou dendro-microhabitat, est une structure distincte et bien délimitée se trouvant sur des arbres vivants ou morts sur pied, qui constitue un substrat ou un site de vie particulier et essentiel pour les espèces ou les communautés d'espèces pendant au moins une partie de leur cycle de vie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dendromicrohabitat, ou dendro-microhabitat, est une structure distincte et bien délimitée se trouvant sur des arbres vivants ou morts sur pied, qui constitue un substrat ou un site de vie particulier et essentiel pour les espèces ou les communautés d'espèces pendant au moins une partie de leur cycle de vie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Typologies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe sept formes générales de dendromicrohabitat qui partagent la même physionomie et les mêmes caractéristiques fonctionnelles :
 les cavités, pouvant être formées par des pics, de la pourriture du bois ou pouvant être une particularité morphologique de l'arbre, comme les dendrotelmes, les contreforts ;
